--- a/Ajith_KUBS_CEN_GeneralLedger12/Test-data/KUBSTestData.xlsx
+++ b/Ajith_KUBS_CEN_GeneralLedger12/Test-data/KUBSTestData.xlsx
@@ -39,13 +39,12 @@
     <sheet name="GL2TestData" sheetId="30" r:id="rId32"/>
     <sheet name="TestExecution" sheetId="31" r:id="rId33"/>
   </sheets>
-  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1332">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -4962,6 +4961,231 @@
   </si>
   <si>
     <t>KUBS_BP_UAT_005_002_06_D1</t>
+  </si>
+  <si>
+    <t>54448</t>
+  </si>
+  <si>
+    <t>54549</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>JV_AZE_DEC2022_54548</t>
+  </si>
+  <si>
+    <t>54550</t>
+  </si>
+  <si>
+    <t>54671</t>
+  </si>
+  <si>
+    <t>54775</t>
+  </si>
+  <si>
+    <t>54880</t>
+  </si>
+  <si>
+    <t>54986</t>
+  </si>
+  <si>
+    <t>JV_AZE_DEC2022_54985</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>55093</t>
+  </si>
+  <si>
+    <t>55094</t>
+  </si>
+  <si>
+    <t>Testing_5036408</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>Testing_3098279</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>Accounting_6055004</t>
+  </si>
+  <si>
+    <t>Testing_504390</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>Asset66242655</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>Testing_5097188</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>Liability16871014</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>Testing_5060408</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>Income1020593523</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>Testing_5062150</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>Chair0100582411</t>
+  </si>
+  <si>
+    <t>14169</t>
+  </si>
+  <si>
+    <t>Chair0200458249</t>
+  </si>
+  <si>
+    <t>Chair03004493313</t>
+  </si>
+  <si>
+    <t>Chair040021355</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>55338</t>
+  </si>
+  <si>
+    <t>JV_AZE_DEC2022_55216</t>
+  </si>
+  <si>
+    <t>55339</t>
+  </si>
+  <si>
+    <t>Testing_5083200</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>Testing_3020308</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>Accounting_2239323</t>
+  </si>
+  <si>
+    <t>Testing_502393</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>Asset25874931</t>
+  </si>
+  <si>
+    <t>Testing_5089697</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>Liability144291922</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>Testing_5076361</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>Income1049912510</t>
+  </si>
+  <si>
+    <t>Testing_5082274</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>Chair01001623511</t>
+  </si>
+  <si>
+    <t>14189</t>
+  </si>
+  <si>
+    <t>Chair020018233</t>
+  </si>
+  <si>
+    <t>Chair03003524811</t>
+  </si>
+  <si>
+    <t>Chair0400243356</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>55460</t>
+  </si>
+  <si>
+    <t>JV_AZE_JAN2023_55459</t>
+  </si>
+  <si>
+    <t>55461</t>
   </si>
 </sst>
 </file>
@@ -6533,14 +6757,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.85428571428571" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="44.285714285714285" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41" style="5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.571428571428573" style="5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="122.85714285714286" style="5"/>
-    <col min="5" max="5" width="37.142857142857146" style="5" customWidth="1"/>
-    <col min="6" max="6" width="38.857142857142854" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.857142857142857" style="5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="122.85714285714286" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="44.285714285714285" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" style="5" width="41.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" hidden="true" style="5" width="21.571428571428573" collapsed="true"/>
+    <col min="4" max="4" style="5" width="122.85714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="37.142857142857146" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="38.857142857142854" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="5" width="6.857142857142857" collapsed="true"/>
+    <col min="8" max="16384" style="5" width="122.85714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.05">
@@ -6717,17 +6941,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="65.28571428571429" style="5" customWidth="1"/>
-    <col min="2" max="2" width="73.57142857142857" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.428571428571427" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.142857142857142" style="5"/>
-    <col min="5" max="5" width="33" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.285714285714285" style="5" customWidth="1"/>
-    <col min="7" max="7" width="52.42857142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="54" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.142857142857146" style="5" customWidth="1"/>
-    <col min="10" max="10" width="39.57142857142857" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="65.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="73.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="25.428571428571427" collapsed="true"/>
+    <col min="4" max="4" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="59.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="52.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="54.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="32.142857142857146" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="39.57142857142857" collapsed="true"/>
+    <col min="11" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -6806,19 +7030,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="69.28571428571429" style="5" customWidth="1"/>
-    <col min="2" max="2" width="76.14285714285714" style="5" customWidth="1"/>
-    <col min="3" max="4" width="17.285714285714285" style="5"/>
-    <col min="5" max="5" width="33.142857142857146" style="5" customWidth="1"/>
-    <col min="6" max="6" width="75.28571428571429" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.857142857142854" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.142857142857146" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.428571428571427" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.857142857142858" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.571428571428573" style="5" customWidth="1"/>
-    <col min="12" max="13" width="17.285714285714285" style="5"/>
-    <col min="14" max="14" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="69.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="76.14285714285714" collapsed="true"/>
+    <col min="3" max="4" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.142857142857146" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="75.28571428571429" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="32.857142857142854" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="37.142857142857146" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="30.428571428571427" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="23.857142857142858" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="24.571428571428573" collapsed="true"/>
+    <col min="12" max="13" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="15" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.05">
@@ -6921,31 +7145,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="70.85714285714286" style="5" customWidth="1"/>
-    <col min="2" max="2" width="77.42857142857143" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="4" max="4" width="34.42857142857143" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43.57142857142857" style="5" customWidth="1"/>
-    <col min="6" max="7" width="36.42857142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.428571428571427" style="5" customWidth="1"/>
-    <col min="9" max="9" width="65.42857142857143" style="5" customWidth="1"/>
-    <col min="10" max="10" width="62.42857142857143" style="74" customWidth="1"/>
-    <col min="11" max="11" width="59.714285714285715" style="5" customWidth="1"/>
-    <col min="12" max="12" width="49.57142857142857" style="5" customWidth="1"/>
-    <col min="13" max="13" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="14" max="14" width="32.857142857142854" style="5" customWidth="1"/>
-    <col min="15" max="15" width="31.571428571428573" style="5" customWidth="1"/>
-    <col min="16" max="17" width="63.714285714285715" style="5" customWidth="1"/>
-    <col min="18" max="18" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="19" max="19" width="32.57142857142857" style="5" customWidth="1"/>
-    <col min="20" max="20" width="30.571428571428573" style="5" customWidth="1"/>
-    <col min="21" max="21" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="22" max="22" width="22" style="5" customWidth="1"/>
-    <col min="23" max="23" width="21.571428571428573" style="5" customWidth="1"/>
-    <col min="24" max="24" width="28.857142857142858" style="5" customWidth="1"/>
-    <col min="25" max="25" width="18.714285714285715" style="5" customWidth="1"/>
-    <col min="26" max="26" width="48.285714285714285" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="70.85714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="77.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="34.42857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="43.57142857142857" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="5" width="36.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="19.428571428571427" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="65.42857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="74" width="62.42857142857143" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="59.714285714285715" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="49.57142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="32.857142857142854" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="31.571428571428573" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" style="5" width="63.714285714285715" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="5" width="32.57142857142857" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="5" width="30.571428571428573" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="5" width="22.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="5" width="21.571428571428573" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="5" width="28.857142857142858" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="5" width="18.714285714285715" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="5" width="48.285714285714285" collapsed="true"/>
+    <col min="27" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.05">
@@ -7289,14 +7513,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="69.71428571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="74.14285714285714" style="5" customWidth="1"/>
-    <col min="3" max="4" width="17.285714285714285" style="5"/>
-    <col min="5" max="5" width="62.285714285714285" style="5" customWidth="1"/>
-    <col min="6" max="8" width="17.285714285714285" style="5"/>
-    <col min="9" max="9" width="32.857142857142854" style="5" customWidth="1"/>
-    <col min="10" max="10" width="32.57142857142857" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="69.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="74.14285714285714" collapsed="true"/>
+    <col min="3" max="4" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="62.285714285714285" collapsed="true"/>
+    <col min="6" max="8" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="32.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="32.57142857142857" collapsed="true"/>
+    <col min="11" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -7455,20 +7679,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="77.28571428571429" style="5" customWidth="1"/>
-    <col min="2" max="2" width="83.71428571428571" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.142857142857142" style="5"/>
-    <col min="4" max="4" width="25.142857142857142" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.857142857142858" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.714285714285715" style="5" customWidth="1"/>
-    <col min="7" max="7" width="40" style="5" customWidth="1"/>
-    <col min="8" max="8" width="42.714285714285715" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.857142857142858" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.142857142857142" style="5" customWidth="1"/>
-    <col min="12" max="12" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.428571428571427" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="77.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="83.71428571428571" collapsed="true"/>
+    <col min="3" max="3" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="25.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="25.857142857142858" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="26.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="40.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="42.714285714285715" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="22.857142857142858" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="24.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="24.142857142857142" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="20.428571428571427" collapsed="true"/>
+    <col min="14" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.05">
@@ -8070,18 +8294,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="64.14285714285714" style="5" customWidth="1"/>
-    <col min="2" max="2" width="70" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.714285714285715" style="5" customWidth="1"/>
-    <col min="4" max="7" width="36.142857142857146" style="5"/>
-    <col min="8" max="8" width="27.714285714285715" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29.428571428571427" style="5" customWidth="1"/>
-    <col min="10" max="10" width="37.142857142857146" style="5" customWidth="1"/>
-    <col min="11" max="21" width="36.142857142857146" style="5"/>
-    <col min="22" max="22" width="40" style="5" customWidth="1"/>
-    <col min="23" max="48" width="36.142857142857146" style="5"/>
-    <col min="49" max="49" width="55.714285714285715" style="5" customWidth="1"/>
-    <col min="50" max="16384" width="36.142857142857146" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="64.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="70.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="22.714285714285715" collapsed="true"/>
+    <col min="4" max="7" style="5" width="36.142857142857146" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="27.714285714285715" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="29.428571428571427" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="37.142857142857146" collapsed="true"/>
+    <col min="11" max="21" style="5" width="36.142857142857146" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="5" width="40.0" collapsed="true"/>
+    <col min="23" max="48" style="5" width="36.142857142857146" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="5" width="55.714285714285715" collapsed="true"/>
+    <col min="50" max="16384" style="5" width="36.142857142857146" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="14.05">
@@ -9660,17 +9884,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="87" style="5" customWidth="1"/>
-    <col min="2" max="2" width="82.71428571428571" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.142857142857146" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.428571428571427" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.285714285714285" style="5" customWidth="1"/>
-    <col min="7" max="8" width="28.285714285714285" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.714285714285715" style="5" customWidth="1"/>
-    <col min="10" max="13" width="17.142857142857142" style="5"/>
-    <col min="14" max="15" width="30.571428571428573" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="87.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="82.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="32.142857142857146" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="31.428571428571427" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="31.285714285714285" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="5" width="28.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="26.714285714285715" collapsed="true"/>
+    <col min="10" max="13" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="5" width="30.571428571428573" collapsed="true"/>
+    <col min="16" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.3">
@@ -10074,19 +10298,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="69.57142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="60.714285714285715" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.285714285714286" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.285714285714286" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.714285714285715" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.428571428571427" style="5" customWidth="1"/>
-    <col min="7" max="8" width="56.142857142857146" style="5" customWidth="1"/>
-    <col min="9" max="9" width="59.285714285714285" style="5" customWidth="1"/>
-    <col min="10" max="11" width="62" style="5" customWidth="1"/>
-    <col min="12" max="12" width="104.57142857142857" style="5" customWidth="1"/>
-    <col min="13" max="13" width="78.28571428571429" style="5" customWidth="1"/>
-    <col min="14" max="14" width="62.714285714285715" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="69.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="60.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.285714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="12.285714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="55.714285714285715" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="18.428571428571427" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="5" width="56.142857142857146" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="59.285714285714285" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="5" width="62.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="104.57142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="78.28571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="62.714285714285715" collapsed="true"/>
+    <col min="15" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.05">
@@ -10925,31 +11149,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="55.42857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="56.714285714285715" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.428571428571429" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.714285714285714" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.857142857142858" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14" style="5" customWidth="1"/>
-    <col min="7" max="9" width="44.57142857142857" style="5" customWidth="1"/>
-    <col min="10" max="10" width="47.42857142857143" style="74" customWidth="1"/>
-    <col min="11" max="12" width="47.42857142857143" style="5" customWidth="1"/>
-    <col min="13" max="13" width="74.85714285714286" style="5" customWidth="1"/>
-    <col min="14" max="14" width="78.42857142857143" style="5" customWidth="1"/>
-    <col min="15" max="15" width="73" style="5" customWidth="1"/>
-    <col min="16" max="16" width="34" style="5" customWidth="1"/>
-    <col min="17" max="17" width="20.428571428571427" style="5" customWidth="1"/>
-    <col min="18" max="18" width="34" style="5" customWidth="1"/>
-    <col min="19" max="19" width="45.285714285714285" style="5" customWidth="1"/>
-    <col min="20" max="22" width="48.285714285714285" style="5" customWidth="1"/>
-    <col min="23" max="23" width="17.142857142857142" style="5"/>
-    <col min="24" max="24" width="37" style="5" customWidth="1"/>
-    <col min="25" max="25" width="35.285714285714285" style="5" customWidth="1"/>
-    <col min="26" max="26" width="46" style="5" customWidth="1"/>
-    <col min="27" max="27" width="30.857142857142858" style="74" customWidth="1"/>
-    <col min="28" max="1023" width="17.142857142857142" style="5"/>
-    <col min="1024" max="1024" width="16.857142857142858" style="120" customWidth="1"/>
-    <col min="1025" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="55.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="56.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.428571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="12.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="17.857142857142858" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="14.0" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="44.57142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="74" width="47.42857142857143" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="5" width="47.42857142857143" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="74.85714285714286" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="78.42857142857143" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="73.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="20.428571428571427" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="5" width="34.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="5" width="45.285714285714285" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" style="5" width="48.285714285714285" collapsed="true"/>
+    <col min="23" max="23" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="5" width="37.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="5" width="35.285714285714285" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="5" width="46.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="74" width="30.857142857142858" collapsed="true"/>
+    <col min="28" max="1023" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="1024" max="1024" customWidth="true" style="120" width="16.857142857142858" collapsed="true"/>
+    <col min="1025" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.05">
@@ -12995,16 +13219,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="42.42857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="56" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.857142857142858" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.142857142857142" style="5" customWidth="1"/>
-    <col min="5" max="15" width="35.57142857142857" style="5"/>
-    <col min="16" max="16" width="22.714285714285715" style="5" customWidth="1"/>
-    <col min="17" max="26" width="35.57142857142857" style="5"/>
-    <col min="27" max="27" width="14.714285714285714" style="5" customWidth="1"/>
-    <col min="28" max="28" width="42.142857142857146" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="35.57142857142857" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="42.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="56.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="14.142857142857142" collapsed="true"/>
+    <col min="5" max="15" style="5" width="35.57142857142857" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="22.714285714285715" collapsed="true"/>
+    <col min="17" max="26" style="5" width="35.57142857142857" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="5" width="14.714285714285714" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="5" width="42.142857142857146" collapsed="true"/>
+    <col min="29" max="16384" style="5" width="35.57142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.05">
@@ -14053,10 +14277,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="34" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.57142857142857" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="39.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="40.0" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -14174,22 +14398,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="33.857142857142854" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.857142857142854" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.857142857142858" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.142857142857142" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.42857142857143" style="5" customWidth="1"/>
-    <col min="6" max="8" width="17.285714285714285" style="5"/>
-    <col min="9" max="9" width="35.857142857142854" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.428571428571427" style="5" customWidth="1"/>
-    <col min="11" max="11" width="32.57142857142857" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.285714285714285" style="5"/>
-    <col min="13" max="13" width="50" style="5" customWidth="1"/>
-    <col min="14" max="14" width="28.142857142857142" style="5" customWidth="1"/>
-    <col min="15" max="15" width="31.285714285714285" style="5" customWidth="1"/>
-    <col min="16" max="16" width="29.571428571428573" style="5" customWidth="1"/>
-    <col min="17" max="17" width="27.714285714285715" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="33.857142857142854" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="34.857142857142854" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="14.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.42857142857143" collapsed="true"/>
+    <col min="6" max="8" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="35.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="26.428571428571427" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="32.57142857142857" collapsed="true"/>
+    <col min="12" max="12" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="50.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="28.142857142857142" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="31.285714285714285" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="29.571428571428573" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="27.714285714285715" collapsed="true"/>
+    <col min="18" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.05">
@@ -14625,18 +14849,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="69.57142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="60.714285714285715" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.285714285714285" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.857142857142854" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.714285714285715" style="5" customWidth="1"/>
-    <col min="6" max="6" width="56.142857142857146" style="5" customWidth="1"/>
-    <col min="7" max="7" width="59.285714285714285" style="5" customWidth="1"/>
-    <col min="8" max="8" width="62" style="5" customWidth="1"/>
-    <col min="9" max="9" width="104.57142857142857" style="5" customWidth="1"/>
-    <col min="10" max="10" width="78.28571428571429" style="5" customWidth="1"/>
-    <col min="11" max="11" width="62.714285714285715" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="69.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="60.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="47.285714285714285" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="37.857142857142854" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="55.714285714285715" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="56.142857142857146" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="59.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="62.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="104.57142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="78.28571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="62.714285714285715" collapsed="true"/>
+    <col min="12" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.05">
@@ -14814,7 +15038,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="4.291732283464567" bottom="4.291732283464567" header="4.094881889763779" footer="4.094881889763779"/>
@@ -14832,7 +15056,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="4.291732283464567" bottom="4.291732283464567" header="4.094881889763779" footer="4.094881889763779"/>
@@ -14850,18 +15074,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="71.14285714285714" style="5" customWidth="1"/>
-    <col min="2" max="2" width="76" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.857142857142854" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="5" max="5" width="51.42857142857143" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.714285714285715" style="5" customWidth="1"/>
-    <col min="7" max="7" width="65.28571428571429" style="5" customWidth="1"/>
-    <col min="8" max="9" width="62" style="5" customWidth="1"/>
-    <col min="10" max="10" width="48.285714285714285" style="5" customWidth="1"/>
-    <col min="11" max="11" width="42.285714285714285" style="5" customWidth="1"/>
-    <col min="12" max="12" width="38.42857142857143" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="71.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="76.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="50.857142857142854" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="51.42857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="40.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="65.28571428571429" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="5" width="62.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="48.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="42.285714285714285" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="38.42857142857143" collapsed="true"/>
+    <col min="13" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.05">
@@ -15069,19 +15293,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="44.714285714285715" style="5" customWidth="1"/>
-    <col min="2" max="2" width="52.42857142857143" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.285714285714285" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.42857142857143" style="5" customWidth="1"/>
-    <col min="6" max="6" width="48.714285714285715" style="5" customWidth="1"/>
-    <col min="7" max="7" width="44.714285714285715" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.285714285714285" style="5" customWidth="1"/>
-    <col min="9" max="9" width="47.285714285714285" style="5" customWidth="1"/>
-    <col min="10" max="10" width="41" style="5" customWidth="1"/>
-    <col min="11" max="12" width="64" style="5" customWidth="1"/>
-    <col min="13" max="13" width="55.857142857142854" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="44.714285714285715" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="45.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="39.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="38.42857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="48.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="44.714285714285715" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="23.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="47.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="41.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="5" width="64.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="55.857142857142854" collapsed="true"/>
+    <col min="14" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.05">
@@ -15193,22 +15417,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="57.57142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="62.42857142857143" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.42857142857143" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28" style="5" customWidth="1"/>
-    <col min="5" max="5" width="44.714285714285715" style="5" customWidth="1"/>
-    <col min="6" max="6" width="42.285714285714285" style="5" customWidth="1"/>
-    <col min="7" max="7" width="69" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.857142857142858" style="5" customWidth="1"/>
-    <col min="9" max="9" width="43.285714285714285" style="5" customWidth="1"/>
-    <col min="10" max="10" width="33.42857142857143" style="5" customWidth="1"/>
-    <col min="11" max="11" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="12" max="12" width="52.42857142857143" style="5" customWidth="1"/>
-    <col min="13" max="13" width="66.42857142857143" style="5" customWidth="1"/>
-    <col min="14" max="15" width="64.14285714285714" style="5" customWidth="1"/>
-    <col min="16" max="16" width="70.57142857142857" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="57.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="62.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="41.42857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="28.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="44.714285714285715" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="42.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="69.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="30.857142857142858" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="43.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="33.42857142857143" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="52.42857142857143" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="66.42857142857143" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="5" width="64.14285714285714" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="70.57142857142857" collapsed="true"/>
+    <col min="17" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.05">
@@ -15326,13 +15550,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="54.142857142857146" style="5" customWidth="1"/>
-    <col min="2" max="2" width="59.285714285714285" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.57142857142857" style="5" customWidth="1"/>
-    <col min="5" max="6" width="43.57142857142857" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.142857142857146" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="54.142857142857146" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="59.285714285714285" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="40.57142857142857" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="5" width="43.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="50.142857142857146" collapsed="true"/>
+    <col min="8" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.05">
@@ -15393,21 +15617,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="56.42857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.142857142857146" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.857142857142854" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.42857142857143" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.285714285714285" style="5" customWidth="1"/>
-    <col min="6" max="6" width="71.14285714285714" style="5" customWidth="1"/>
-    <col min="7" max="7" width="59" style="5" customWidth="1"/>
-    <col min="8" max="8" width="51.285714285714285" style="5" customWidth="1"/>
-    <col min="9" max="9" width="44.714285714285715" style="5" customWidth="1"/>
-    <col min="10" max="10" width="53.857142857142854" style="5" customWidth="1"/>
-    <col min="11" max="11" width="34.42857142857143" style="5" customWidth="1"/>
-    <col min="12" max="14" width="47.57142857142857" style="5" customWidth="1"/>
-    <col min="15" max="16" width="42.142857142857146" style="5" customWidth="1"/>
-    <col min="17" max="17" width="47.142857142857146" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="56.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="50.142857142857146" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="37.857142857142854" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="33.42857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="55.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="71.14285714285714" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="59.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="51.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="44.714285714285715" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="53.857142857142854" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="34.42857142857143" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" style="5" width="47.57142857142857" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" style="5" width="42.142857142857146" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="47.142857142857146" collapsed="true"/>
+    <col min="18" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.05">
@@ -15576,38 +15800,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.714285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="30.857142857142858" style="179" customWidth="1"/>
-    <col min="2" max="2" width="36.714285714285715" style="179" customWidth="1"/>
-    <col min="3" max="3" width="13.428571428571429" style="179" customWidth="1"/>
-    <col min="4" max="4" width="12.714285714285714" style="179" customWidth="1"/>
-    <col min="5" max="5" width="30.142857142857142" style="179" customWidth="1"/>
-    <col min="6" max="6" width="21.142857142857142" style="179" customWidth="1"/>
-    <col min="7" max="7" width="16" style="179" customWidth="1"/>
-    <col min="8" max="8" width="19.857142857142858" style="179" customWidth="1"/>
-    <col min="9" max="9" width="20.142857142857142" style="179" customWidth="1"/>
-    <col min="10" max="13" width="12.571428571428571" style="179" customWidth="1"/>
-    <col min="14" max="14" width="20.142857142857142" style="179" customWidth="1"/>
-    <col min="15" max="15" width="21.571428571428573" style="179" customWidth="1"/>
-    <col min="16" max="16" width="18.714285714285715" style="179" customWidth="1"/>
-    <col min="17" max="17" width="26.428571428571427" style="179" customWidth="1"/>
-    <col min="18" max="18" width="19.714285714285715" style="179" customWidth="1"/>
-    <col min="19" max="19" width="29.285714285714285" style="179" customWidth="1"/>
-    <col min="20" max="20" width="23.285714285714285" style="179" customWidth="1"/>
-    <col min="21" max="21" width="13.571428571428571" style="179" customWidth="1"/>
-    <col min="22" max="22" width="17.857142857142858" style="179" customWidth="1"/>
-    <col min="23" max="23" width="13.571428571428571" style="179" customWidth="1"/>
-    <col min="24" max="24" width="13.714285714285714" style="179" customWidth="1"/>
-    <col min="25" max="25" width="21.857142857142858" style="179" customWidth="1"/>
-    <col min="26" max="26" width="19.714285714285715" style="179" customWidth="1"/>
-    <col min="27" max="27" width="21.857142857142858" style="179" customWidth="1"/>
-    <col min="28" max="28" width="17.285714285714285" style="179" customWidth="1"/>
-    <col min="29" max="31" width="14.857142857142858" style="179" customWidth="1"/>
-    <col min="32" max="32" width="25.714285714285715" style="179" customWidth="1"/>
-    <col min="33" max="33" width="27.428571428571427" style="169" customWidth="1"/>
-    <col min="34" max="34" width="23" style="169" customWidth="1"/>
-    <col min="35" max="35" width="21" style="179" customWidth="1"/>
-    <col min="36" max="36" width="20.285714285714285" style="179" customWidth="1"/>
-    <col min="37" max="16384" width="9.714285714285714" style="179"/>
+    <col min="1" max="1" customWidth="true" style="179" width="30.857142857142858" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="179" width="36.714285714285715" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="179" width="12.7734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="179" width="12.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="179" width="30.142857142857142" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="179" width="21.142857142857142" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="179" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="179" width="18.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="179" width="20.142857142857142" collapsed="true"/>
+    <col min="10" max="13" customWidth="true" style="179" width="12.571428571428571" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="179" width="20.142857142857142" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="179" width="20.48828125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="179" width="18.714285714285715" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="179" width="25.0546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="179" width="19.714285714285715" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="179" width="27.65625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="179" width="23.285714285714285" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="179" width="13.571428571428571" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="179" width="18.07421875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="179" width="13.571428571428571" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="179" width="13.714285714285714" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="179" width="21.857142857142858" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="179" width="18.66015625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="179" width="21.857142857142858" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="179" width="16.45703125" collapsed="true"/>
+    <col min="29" max="31" customWidth="true" style="179" width="14.857142857142858" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="179" width="25.714285714285715" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="169" width="27.428571428571427" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="169" width="23.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="179" width="21.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="179" width="20.285714285714285" collapsed="true"/>
+    <col min="37" max="16384" style="179" width="9.714285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="170" customFormat="1" ht="14.05">
@@ -15782,7 +16006,7 @@
         <v>861</v>
       </c>
       <c r="C3" s="142" t="s">
-        <v>862</v>
+        <v>1320</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>446</v>
@@ -15881,7 +16105,7 @@
       <c r="F5" s="144"/>
       <c r="G5" s="146"/>
       <c r="H5" s="142" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="I5" s="148"/>
       <c r="J5" s="154" t="s">
@@ -15978,7 +16202,7 @@
         <v>874</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>875</v>
+        <v>1307</v>
       </c>
       <c r="D7" s="142" t="s">
         <v>446</v>
@@ -16075,7 +16299,7 @@
       <c r="F9" s="144"/>
       <c r="G9" s="146"/>
       <c r="H9" s="142" t="s">
-        <v>880</v>
+        <v>1306</v>
       </c>
       <c r="I9" s="149"/>
       <c r="J9" s="154" t="s">
@@ -16123,7 +16347,7 @@
       </c>
       <c r="G10" s="146"/>
       <c r="H10" s="142" t="s">
-        <v>880</v>
+        <v>1306</v>
       </c>
       <c r="I10" s="149" t="s">
         <v>872</v>
@@ -16212,7 +16436,7 @@
         <v>887</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>875</v>
+        <v>1305</v>
       </c>
       <c r="D12" s="142" t="s">
         <v>446</v>
@@ -16318,7 +16542,7 @@
       <c r="M14" s="157"/>
       <c r="N14" s="160"/>
       <c r="O14" s="163" t="s">
-        <v>892</v>
+        <v>1308</v>
       </c>
       <c r="P14" s="159"/>
       <c r="Q14" s="164"/>
@@ -16359,7 +16583,7 @@
         <v>895</v>
       </c>
       <c r="H15" s="147" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="I15" s="148" t="s">
         <v>859</v>
@@ -16410,7 +16634,7 @@
         <v>898</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>899</v>
+        <v>1275</v>
       </c>
       <c r="D16" s="142" t="s">
         <v>446</v>
@@ -16507,7 +16731,7 @@
       <c r="F18" s="144"/>
       <c r="G18" s="145"/>
       <c r="H18" s="147" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="I18" s="148"/>
       <c r="J18" s="154" t="s">
@@ -16557,7 +16781,7 @@
         <v>906</v>
       </c>
       <c r="H19" s="147" t="s">
-        <v>880</v>
+        <v>1306</v>
       </c>
       <c r="I19" s="148" t="s">
         <v>859</v>
@@ -16764,7 +16988,7 @@
         <v>916</v>
       </c>
       <c r="Q23" s="165" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="R23" s="154" t="s">
         <v>917</v>
@@ -16798,7 +17022,7 @@
         <v>920</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>921</v>
+        <v>1282</v>
       </c>
       <c r="D24" s="142" t="s">
         <v>446</v>
@@ -16908,7 +17132,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="154"/>
       <c r="S26" s="165" t="s">
-        <v>926</v>
+        <v>1311</v>
       </c>
       <c r="T26" s="149"/>
       <c r="U26" s="156"/>
@@ -16954,7 +17178,7 @@
         <v>929</v>
       </c>
       <c r="Q27" s="165" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="R27" s="154" t="s">
         <v>930</v>
@@ -16988,7 +17212,7 @@
         <v>933</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>934</v>
+        <v>1315</v>
       </c>
       <c r="D28" s="142" t="s">
         <v>446</v>
@@ -17098,7 +17322,7 @@
       <c r="Q30" s="165"/>
       <c r="R30" s="154"/>
       <c r="S30" s="165" t="s">
-        <v>939</v>
+        <v>1314</v>
       </c>
       <c r="T30" s="152"/>
       <c r="U30" s="141"/>
@@ -17144,7 +17368,7 @@
         <v>942</v>
       </c>
       <c r="Q31" s="165" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="R31" s="154" t="s">
         <v>943</v>
@@ -17178,7 +17402,7 @@
         <v>945</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>946</v>
+        <v>1290</v>
       </c>
       <c r="D32" s="142" t="s">
         <v>446</v>
@@ -17288,7 +17512,7 @@
       <c r="Q34" s="165"/>
       <c r="R34" s="154"/>
       <c r="S34" s="165" t="s">
-        <v>951</v>
+        <v>1318</v>
       </c>
       <c r="T34" s="152"/>
       <c r="U34" s="141"/>
@@ -17334,7 +17558,7 @@
         <v>954</v>
       </c>
       <c r="Q35" s="165" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="R35" s="154" t="s">
         <v>955</v>
@@ -17522,11 +17746,11 @@
       <c r="O39" s="162"/>
       <c r="P39" s="159"/>
       <c r="Q39" s="165" t="s">
-        <v>867</v>
+        <v>1319</v>
       </c>
       <c r="R39" s="156"/>
       <c r="S39" s="165" t="s">
-        <v>939</v>
+        <v>1314</v>
       </c>
       <c r="T39" s="150"/>
       <c r="U39" s="156"/>
@@ -17612,7 +17836,7 @@
         <v>975</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>976</v>
+        <v>1322</v>
       </c>
       <c r="D41" s="142" t="s">
         <v>446</v>
@@ -17729,7 +17953,7 @@
       <c r="X43" s="149"/>
       <c r="Y43" s="154"/>
       <c r="Z43" s="165" t="s">
-        <v>981</v>
+        <v>1321</v>
       </c>
       <c r="AA43" s="165"/>
       <c r="AB43" s="159"/>
@@ -17775,7 +17999,7 @@
         <v>984</v>
       </c>
       <c r="V44" s="165" t="s">
-        <v>981</v>
+        <v>1321</v>
       </c>
       <c r="W44" s="149" t="s">
         <v>985</v>
@@ -17787,7 +18011,7 @@
         <v>972</v>
       </c>
       <c r="Z44" s="165" t="s">
-        <v>981</v>
+        <v>1321</v>
       </c>
       <c r="AA44" s="165" t="s">
         <v>986</v>
@@ -17927,7 +18151,7 @@
       <c r="X47" s="149"/>
       <c r="Y47" s="154"/>
       <c r="Z47" s="165" t="s">
-        <v>994</v>
+        <v>1323</v>
       </c>
       <c r="AA47" s="165"/>
       <c r="AB47" s="159"/>
@@ -17973,7 +18197,7 @@
         <v>997</v>
       </c>
       <c r="V48" s="165" t="s">
-        <v>994</v>
+        <v>1323</v>
       </c>
       <c r="W48" s="149" t="s">
         <v>985</v>
@@ -18123,7 +18347,7 @@
       <c r="X51" s="149"/>
       <c r="Y51" s="154"/>
       <c r="Z51" s="165" t="s">
-        <v>1006</v>
+        <v>1324</v>
       </c>
       <c r="AA51" s="165"/>
       <c r="AB51" s="159"/>
@@ -18169,7 +18393,7 @@
         <v>1009</v>
       </c>
       <c r="V52" s="165" t="s">
-        <v>1006</v>
+        <v>1324</v>
       </c>
       <c r="W52" s="149" t="s">
         <v>970</v>
@@ -18319,7 +18543,7 @@
       <c r="X55" s="149"/>
       <c r="Y55" s="154"/>
       <c r="Z55" s="165" t="s">
-        <v>1019</v>
+        <v>1325</v>
       </c>
       <c r="AA55" s="165"/>
       <c r="AB55" s="160"/>
@@ -18377,7 +18601,7 @@
       <c r="Z56" s="165"/>
       <c r="AA56" s="165"/>
       <c r="AB56" s="160" t="s">
-        <v>1019</v>
+        <v>1325</v>
       </c>
       <c r="AC56" s="156"/>
       <c r="AD56" s="156"/>
@@ -18663,7 +18887,7 @@
       <c r="X62" s="150"/>
       <c r="Y62" s="156"/>
       <c r="Z62" s="165" t="s">
-        <v>1006</v>
+        <v>1324</v>
       </c>
       <c r="AA62" s="165"/>
       <c r="AB62" s="160" t="s">
@@ -18805,7 +19029,7 @@
       <c r="X65" s="150"/>
       <c r="Y65" s="156"/>
       <c r="Z65" s="165" t="s">
-        <v>1006</v>
+        <v>1324</v>
       </c>
       <c r="AA65" s="165"/>
       <c r="AB65" s="160"/>
@@ -18948,7 +19172,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.85428571428571" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" width="73.85714285714286" style="5"/>
+    <col min="1" max="16384" style="5" width="73.85714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -19016,27 +19240,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="2" width="37.285714285714285" style="179"/>
-    <col min="3" max="3" width="13.428571428571429" style="179" customWidth="1"/>
-    <col min="4" max="4" width="12.714285714285714" style="179" customWidth="1"/>
-    <col min="5" max="6" width="37.285714285714285" style="179"/>
-    <col min="7" max="7" width="53.714285714285715" style="179" customWidth="1"/>
-    <col min="8" max="8" width="38.714285714285715" style="179" customWidth="1"/>
-    <col min="9" max="9" width="48.285714285714285" style="179" customWidth="1"/>
-    <col min="10" max="10" width="38.142857142857146" style="179" customWidth="1"/>
-    <col min="11" max="11" width="43.142857142857146" style="179" customWidth="1"/>
-    <col min="12" max="12" width="52" style="179" customWidth="1"/>
-    <col min="13" max="13" width="41" style="179" customWidth="1"/>
-    <col min="14" max="14" width="52.42857142857143" style="179" customWidth="1"/>
-    <col min="15" max="15" width="47" style="179" customWidth="1"/>
-    <col min="16" max="28" width="37.285714285714285" style="179"/>
-    <col min="29" max="29" width="36.57142857142857" style="179" customWidth="1"/>
-    <col min="30" max="30" width="26.142857142857142" style="179" customWidth="1"/>
-    <col min="31" max="33" width="37.285714285714285" style="179"/>
-    <col min="34" max="34" width="38.42857142857143" style="179" customWidth="1"/>
-    <col min="35" max="36" width="37.285714285714285" style="179"/>
-    <col min="37" max="37" width="39.714285714285715" style="179" customWidth="1"/>
-    <col min="38" max="16384" width="37.285714285714285" style="179"/>
+    <col min="1" max="2" style="179" width="37.285714285714285" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="179" width="12.7734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="179" width="12.08984375" collapsed="true"/>
+    <col min="5" max="6" style="179" width="37.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="179" width="53.714285714285715" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="179" width="38.714285714285715" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="179" width="48.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="179" width="38.142857142857146" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="179" width="43.142857142857146" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="179" width="52.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="179" width="41.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="179" width="52.42857142857143" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="179" width="47.0" collapsed="true"/>
+    <col min="16" max="28" style="179" width="37.285714285714285" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="179" width="34.64453125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="179" width="26.142857142857142" collapsed="true"/>
+    <col min="31" max="33" style="179" width="37.285714285714285" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="179" width="38.42857142857143" collapsed="true"/>
+    <col min="35" max="36" style="179" width="37.285714285714285" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="179" width="39.714285714285715" collapsed="true"/>
+    <col min="38" max="16384" style="179" width="37.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="14.05">
@@ -19313,7 +19537,7 @@
         <v>1105</v>
       </c>
       <c r="C3" s="142" t="s">
-        <v>1106</v>
+        <v>1326</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>446</v>
@@ -19589,7 +19813,7 @@
         <v>1123</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>1124</v>
+        <v>1327</v>
       </c>
       <c r="D7" s="142" t="s">
         <v>446</v>
@@ -19865,7 +20089,7 @@
         <v>1132</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>1133</v>
+        <v>1328</v>
       </c>
       <c r="D11" s="142" t="s">
         <v>446</v>
@@ -20141,7 +20365,7 @@
         <v>1144</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>1145</v>
+        <v>1329</v>
       </c>
       <c r="D15" s="142" t="s">
         <v>446</v>
@@ -20640,7 +20864,7 @@
       <c r="AA22" s="150"/>
       <c r="AB22" s="150"/>
       <c r="AC22" s="164" t="s">
-        <v>1161</v>
+        <v>1330</v>
       </c>
       <c r="AD22" s="164"/>
       <c r="AE22" s="140"/>
@@ -20742,7 +20966,7 @@
         <v>1166</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>1167</v>
+        <v>1331</v>
       </c>
       <c r="D24" s="142" t="s">
         <v>446</v>
@@ -20900,7 +21124,7 @@
       <c r="AA26" s="150"/>
       <c r="AB26" s="150"/>
       <c r="AC26" s="164" t="s">
-        <v>1161</v>
+        <v>1330</v>
       </c>
       <c r="AD26" s="164"/>
       <c r="AE26" s="140"/>
@@ -20967,7 +21191,7 @@
       <c r="AA27" s="150"/>
       <c r="AB27" s="150"/>
       <c r="AC27" s="164" t="s">
-        <v>1161</v>
+        <v>1330</v>
       </c>
       <c r="AD27" s="164"/>
       <c r="AE27" s="140"/>
@@ -22557,25 +22781,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="17.857142857142858" style="5" customWidth="1"/>
-    <col min="2" max="2" width="76" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.428571428571427" style="5" customWidth="1"/>
-    <col min="5" max="5" width="54.285714285714285" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.142857142857146" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.142857142857142" style="5"/>
-    <col min="8" max="8" width="69.28571428571429" style="5" customWidth="1"/>
-    <col min="9" max="9" width="60.714285714285715" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.142857142857142" style="5"/>
-    <col min="11" max="11" width="66.28571428571429" style="5" customWidth="1"/>
-    <col min="12" max="12" width="74.85714285714286" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.142857142857142" style="5"/>
-    <col min="14" max="14" width="55.857142857142854" style="5" customWidth="1"/>
-    <col min="15" max="15" width="62" style="5" customWidth="1"/>
-    <col min="16" max="16" width="20.857142857142858" style="5" customWidth="1"/>
-    <col min="17" max="17" width="53" style="5" customWidth="1"/>
-    <col min="18" max="18" width="53.42857142857143" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="17.857142857142858" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="76.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="56.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="31.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="54.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="54.142857142857146" collapsed="true"/>
+    <col min="7" max="7" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="69.28571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="60.714285714285715" collapsed="true"/>
+    <col min="10" max="10" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="66.28571428571429" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="74.85714285714286" collapsed="true"/>
+    <col min="13" max="13" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="55.857142857142854" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="62.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="20.857142857142858" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="53.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="5" width="53.42857142857143" collapsed="true"/>
+    <col min="19" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="41.75">
@@ -23071,46 +23295,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="73.57142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="79.57142857142857" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.714285714285715" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.857142857142858" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.42857142857143" style="22" customWidth="1"/>
-    <col min="6" max="6" width="24.571428571428573" style="22" customWidth="1"/>
-    <col min="7" max="7" width="30.428571428571427" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31.285714285714285" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.285714285714285" style="22" customWidth="1"/>
-    <col min="10" max="10" width="31.285714285714285" style="22" customWidth="1"/>
-    <col min="11" max="11" width="27.285714285714285" style="22" customWidth="1"/>
-    <col min="12" max="12" width="36.857142857142854" style="22" customWidth="1"/>
-    <col min="13" max="13" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="14" max="14" width="34.857142857142854" style="22" customWidth="1"/>
-    <col min="15" max="15" width="35.857142857142854" style="22" customWidth="1"/>
-    <col min="16" max="16" width="40.714285714285715" style="22" customWidth="1"/>
-    <col min="17" max="17" width="38.857142857142854" style="22" customWidth="1"/>
-    <col min="18" max="18" width="44.57142857142857" style="22" customWidth="1"/>
-    <col min="19" max="19" width="37.857142857142854" style="22" customWidth="1"/>
-    <col min="20" max="20" width="48.57142857142857" style="22" customWidth="1"/>
-    <col min="21" max="21" width="23.285714285714285" style="22" customWidth="1"/>
-    <col min="22" max="22" width="39.285714285714285" style="22" customWidth="1"/>
-    <col min="23" max="23" width="25.142857142857142" style="22" customWidth="1"/>
-    <col min="24" max="24" width="32.142857142857146" style="22" customWidth="1"/>
-    <col min="25" max="25" width="25.142857142857142" style="22" customWidth="1"/>
-    <col min="26" max="26" width="26.571428571428573" style="22" customWidth="1"/>
-    <col min="27" max="27" width="20.857142857142858" style="22" customWidth="1"/>
-    <col min="28" max="28" width="17.142857142857142" style="22" customWidth="1"/>
-    <col min="29" max="29" width="16" style="22" customWidth="1"/>
-    <col min="30" max="30" width="24.142857142857142" style="22" customWidth="1"/>
-    <col min="31" max="31" width="25.142857142857142" style="22" customWidth="1"/>
-    <col min="32" max="32" width="41" style="22" customWidth="1"/>
-    <col min="33" max="33" width="34.42857142857143" style="22" customWidth="1"/>
-    <col min="34" max="34" width="32.142857142857146" style="22" customWidth="1"/>
-    <col min="35" max="35" width="22" style="22" customWidth="1"/>
-    <col min="36" max="36" width="46.857142857142854" style="22" customWidth="1"/>
-    <col min="37" max="37" width="37.857142857142854" style="22" customWidth="1"/>
-    <col min="38" max="38" width="54.285714285714285" style="22" customWidth="1"/>
-    <col min="39" max="39" width="62" style="22" customWidth="1"/>
-    <col min="40" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="73.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="79.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="26.714285714285715" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="25.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="22" width="34.42857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="22" width="24.571428571428573" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="22" width="30.428571428571427" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="22" width="31.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="22" width="27.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="22" width="31.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="22" width="27.285714285714285" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="22" width="36.857142857142854" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="22" width="34.857142857142854" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="22" width="35.857142857142854" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="22" width="40.714285714285715" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="22" width="38.857142857142854" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="22" width="44.57142857142857" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="22" width="37.857142857142854" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="22" width="48.57142857142857" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="22" width="23.285714285714285" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="22" width="39.285714285714285" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="22" width="25.142857142857142" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="22" width="32.142857142857146" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="22" width="25.142857142857142" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="22" width="26.571428571428573" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="22" width="20.857142857142858" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="22" width="17.142857142857142" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="22" width="16.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="22" width="24.142857142857142" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="22" width="25.142857142857142" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="22" width="41.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="22" width="34.42857142857143" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="22" width="32.142857142857146" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="22" width="22.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="22" width="46.857142857142854" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="22" width="37.857142857142854" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="22" width="54.285714285714285" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="22" width="62.0" collapsed="true"/>
+    <col min="40" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="14.9">
@@ -23498,9 +23722,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.424285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="75.71428571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="86.42857142857143" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="47.42857142857143" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="75.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="86.42857142857143" collapsed="true"/>
+    <col min="3" max="16384" style="5" width="47.42857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.9">
@@ -23685,22 +23909,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="73.57142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="83.14285714285714" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.428571428571427" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.714285714285715" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.142857142857142" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.142857142857146" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.857142857142858" style="5" customWidth="1"/>
-    <col min="9" max="9" width="37.857142857142854" style="5" customWidth="1"/>
-    <col min="10" max="10" width="57" style="5" customWidth="1"/>
-    <col min="11" max="12" width="17.142857142857142" style="5"/>
-    <col min="13" max="13" width="44.714285714285715" style="5" customWidth="1"/>
-    <col min="14" max="14" width="42.57142857142857" style="5" customWidth="1"/>
-    <col min="15" max="15" width="37.42857142857143" style="5" customWidth="1"/>
-    <col min="16" max="16" width="28.285714285714285" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="73.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="83.14285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="25.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="40.714285714285715" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="28.142857142857142" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="35.142857142857146" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="23.857142857142858" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="37.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="57.0" collapsed="true"/>
+    <col min="11" max="12" style="5" width="17.142857142857142" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="44.714285714285715" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="42.57142857142857" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="37.42857142857143" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="28.285714285714285" collapsed="true"/>
+    <col min="17" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.9">
@@ -23881,38 +24105,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="70.71428571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="81.85714285714286" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.714285714285715" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.571428571428573" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.857142857142854" style="5" customWidth="1"/>
-    <col min="6" max="6" width="60.57142857142857" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.857142857142854" style="5" customWidth="1"/>
-    <col min="8" max="8" width="53" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.285714285714285" style="5" customWidth="1"/>
-    <col min="10" max="10" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="11" max="11" width="32.57142857142857" style="5" customWidth="1"/>
-    <col min="12" max="12" width="35" style="5" customWidth="1"/>
-    <col min="13" max="13" width="30.428571428571427" style="5" customWidth="1"/>
-    <col min="14" max="14" width="35.857142857142854" style="5" customWidth="1"/>
-    <col min="15" max="15" width="36.857142857142854" style="5" customWidth="1"/>
-    <col min="16" max="16" width="23.857142857142858" style="5" customWidth="1"/>
-    <col min="17" max="17" width="32.142857142857146" style="5" customWidth="1"/>
-    <col min="18" max="18" width="42.142857142857146" style="5" customWidth="1"/>
-    <col min="19" max="19" width="34" style="5" customWidth="1"/>
-    <col min="20" max="20" width="60.285714285714285" style="5" customWidth="1"/>
-    <col min="21" max="21" width="35.857142857142854" style="5" customWidth="1"/>
-    <col min="22" max="22" width="29.285714285714285" style="5" customWidth="1"/>
-    <col min="23" max="23" width="28.142857142857142" style="5" customWidth="1"/>
-    <col min="24" max="24" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="25" max="25" width="25.142857142857142" style="5" customWidth="1"/>
-    <col min="26" max="26" width="32.142857142857146" style="5" customWidth="1"/>
-    <col min="27" max="27" width="28" style="5" customWidth="1"/>
-    <col min="28" max="28" width="24" style="5" customWidth="1"/>
-    <col min="29" max="29" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="30" max="30" width="24.571428571428573" style="5" customWidth="1"/>
-    <col min="31" max="31" width="43.714285714285715" style="5" customWidth="1"/>
-    <col min="32" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="70.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="81.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="22.714285714285715" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="24.571428571428573" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="38.857142857142854" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="60.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="38.857142857142854" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="53.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="23.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="32.57142857142857" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="30.428571428571427" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="35.857142857142854" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="36.857142857142854" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="23.857142857142858" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="32.142857142857146" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="5" width="42.142857142857146" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="5" width="34.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="5" width="60.285714285714285" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="5" width="35.857142857142854" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="5" width="29.285714285714285" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="5" width="28.142857142857142" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="5" width="25.142857142857142" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="5" width="32.142857142857146" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="5" width="28.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="5" width="24.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="5" width="24.571428571428573" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="5" width="43.714285714285715" collapsed="true"/>
+    <col min="32" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.05">
@@ -24361,16 +24585,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="93.71428571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="87.42857142857143" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.714285714285715" style="5" customWidth="1"/>
-    <col min="4" max="6" width="37.42857142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.571428571428573" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.428571428571427" style="5" customWidth="1"/>
-    <col min="9" max="10" width="23.285714285714285" style="5" customWidth="1"/>
-    <col min="11" max="17" width="48.57142857142857" style="5" customWidth="1"/>
-    <col min="18" max="18" width="29.857142857142858" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="17.142857142857142" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="93.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="87.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="27.714285714285715" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="5" width="37.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="21.571428571428573" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="30.428571428571427" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="5" width="23.285714285714285" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="5" width="48.57142857142857" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="5" width="29.857142857142858" collapsed="true"/>
+    <col min="19" max="16384" style="5" width="17.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28.3">
@@ -24684,17 +24908,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="75.28571428571429" style="5" customWidth="1"/>
-    <col min="2" max="2" width="81.71428571428571" style="5" customWidth="1"/>
-    <col min="3" max="3" width="48.285714285714285" style="5" customWidth="1"/>
-    <col min="4" max="5" width="35.857142857142854" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.42857142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.285714285714285" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.428571428571427" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.285714285714285" style="5"/>
-    <col min="10" max="10" width="19.714285714285715" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.428571428571427" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="17.285714285714285" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="75.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="81.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="48.285714285714285" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="5" width="35.857142857142854" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="36.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="27.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="25.428571428571427" collapsed="true"/>
+    <col min="9" max="9" style="5" width="17.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="19.714285714285715" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="20.428571428571427" collapsed="true"/>
+    <col min="12" max="16384" style="5" width="17.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.05">

--- a/Ajith_KUBS_CEN_GeneralLedger12/Test-data/KUBSTestData.xlsx
+++ b/Ajith_KUBS_CEN_GeneralLedger12/Test-data/KUBSTestData.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1358">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -5186,6 +5186,84 @@
   </si>
   <si>
     <t>55461</t>
+  </si>
+  <si>
+    <t>Testing_5032181</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>Testing_307127</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>Accounting_3168792</t>
+  </si>
+  <si>
+    <t>Testing_5082143</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>Asset444644228</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>Testing_5043660</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>Liability111121220</t>
+  </si>
+  <si>
+    <t>Testing_5065400</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>Income1019582612</t>
+  </si>
+  <si>
+    <t>Testing_5029226</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>Chair02003133212</t>
+  </si>
+  <si>
+    <t>Chair0300278313</t>
+  </si>
+  <si>
+    <t>Chair04001722611</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>JV_AZE_JAN2023_55698</t>
+  </si>
+  <si>
+    <t>Testing_5042445</t>
+  </si>
+  <si>
+    <t>718</t>
   </si>
 </sst>
 </file>
@@ -15824,7 +15902,7 @@
     <col min="25" max="25" customWidth="true" style="179" width="21.857142857142858" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="179" width="18.66015625" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="179" width="21.857142857142858" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="179" width="16.45703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="179" width="16.9609375" collapsed="true"/>
     <col min="29" max="31" customWidth="true" style="179" width="14.857142857142858" collapsed="true"/>
     <col min="32" max="32" customWidth="true" style="179" width="25.714285714285715" collapsed="true"/>
     <col min="33" max="33" customWidth="true" style="169" width="27.428571428571427" collapsed="true"/>
@@ -16006,7 +16084,7 @@
         <v>861</v>
       </c>
       <c r="C3" s="142" t="s">
-        <v>1320</v>
+        <v>1357</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>446</v>
@@ -16105,7 +16183,7 @@
       <c r="F5" s="144"/>
       <c r="G5" s="146"/>
       <c r="H5" s="142" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="I5" s="148"/>
       <c r="J5" s="154" t="s">
@@ -16202,7 +16280,7 @@
         <v>874</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>1307</v>
+        <v>1335</v>
       </c>
       <c r="D7" s="142" t="s">
         <v>446</v>
@@ -16299,7 +16377,7 @@
       <c r="F9" s="144"/>
       <c r="G9" s="146"/>
       <c r="H9" s="142" t="s">
-        <v>1306</v>
+        <v>1334</v>
       </c>
       <c r="I9" s="149"/>
       <c r="J9" s="154" t="s">
@@ -16347,7 +16425,7 @@
       </c>
       <c r="G10" s="146"/>
       <c r="H10" s="142" t="s">
-        <v>1306</v>
+        <v>1334</v>
       </c>
       <c r="I10" s="149" t="s">
         <v>872</v>
@@ -16436,7 +16514,7 @@
         <v>887</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>1305</v>
+        <v>1335</v>
       </c>
       <c r="D12" s="142" t="s">
         <v>446</v>
@@ -16542,7 +16620,7 @@
       <c r="M14" s="157"/>
       <c r="N14" s="160"/>
       <c r="O14" s="163" t="s">
-        <v>1308</v>
+        <v>1336</v>
       </c>
       <c r="P14" s="159"/>
       <c r="Q14" s="164"/>
@@ -16583,7 +16661,7 @@
         <v>895</v>
       </c>
       <c r="H15" s="147" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="I15" s="148" t="s">
         <v>859</v>
@@ -16634,7 +16712,7 @@
         <v>898</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>1275</v>
+        <v>1357</v>
       </c>
       <c r="D16" s="142" t="s">
         <v>446</v>
@@ -16731,7 +16809,7 @@
       <c r="F18" s="144"/>
       <c r="G18" s="145"/>
       <c r="H18" s="147" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="I18" s="148"/>
       <c r="J18" s="154" t="s">
@@ -16781,7 +16859,7 @@
         <v>906</v>
       </c>
       <c r="H19" s="147" t="s">
-        <v>1306</v>
+        <v>1334</v>
       </c>
       <c r="I19" s="148" t="s">
         <v>859</v>
@@ -16988,7 +17066,7 @@
         <v>916</v>
       </c>
       <c r="Q23" s="165" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="R23" s="154" t="s">
         <v>917</v>
@@ -17022,7 +17100,7 @@
         <v>920</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>1282</v>
+        <v>1340</v>
       </c>
       <c r="D24" s="142" t="s">
         <v>446</v>
@@ -17132,7 +17210,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="154"/>
       <c r="S26" s="165" t="s">
-        <v>1311</v>
+        <v>1339</v>
       </c>
       <c r="T26" s="149"/>
       <c r="U26" s="156"/>
@@ -17178,7 +17256,7 @@
         <v>929</v>
       </c>
       <c r="Q27" s="165" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="R27" s="154" t="s">
         <v>930</v>
@@ -17322,7 +17400,7 @@
       <c r="Q30" s="165"/>
       <c r="R30" s="154"/>
       <c r="S30" s="165" t="s">
-        <v>1314</v>
+        <v>1343</v>
       </c>
       <c r="T30" s="152"/>
       <c r="U30" s="141"/>
@@ -17368,7 +17446,7 @@
         <v>942</v>
       </c>
       <c r="Q31" s="165" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="R31" s="154" t="s">
         <v>943</v>
@@ -17512,7 +17590,7 @@
       <c r="Q34" s="165"/>
       <c r="R34" s="154"/>
       <c r="S34" s="165" t="s">
-        <v>1318</v>
+        <v>1346</v>
       </c>
       <c r="T34" s="152"/>
       <c r="U34" s="141"/>
@@ -17558,7 +17636,7 @@
         <v>954</v>
       </c>
       <c r="Q35" s="165" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="R35" s="154" t="s">
         <v>955</v>
@@ -17746,11 +17824,11 @@
       <c r="O39" s="162"/>
       <c r="P39" s="159"/>
       <c r="Q39" s="165" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="R39" s="156"/>
       <c r="S39" s="165" t="s">
-        <v>1314</v>
+        <v>1343</v>
       </c>
       <c r="T39" s="150"/>
       <c r="U39" s="156"/>
@@ -18151,7 +18229,7 @@
       <c r="X47" s="149"/>
       <c r="Y47" s="154"/>
       <c r="Z47" s="165" t="s">
-        <v>1323</v>
+        <v>1349</v>
       </c>
       <c r="AA47" s="165"/>
       <c r="AB47" s="159"/>
@@ -18197,7 +18275,7 @@
         <v>997</v>
       </c>
       <c r="V48" s="165" t="s">
-        <v>1323</v>
+        <v>1349</v>
       </c>
       <c r="W48" s="149" t="s">
         <v>985</v>
@@ -18347,7 +18425,7 @@
       <c r="X51" s="149"/>
       <c r="Y51" s="154"/>
       <c r="Z51" s="165" t="s">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="AA51" s="165"/>
       <c r="AB51" s="159"/>
@@ -18393,7 +18471,7 @@
         <v>1009</v>
       </c>
       <c r="V52" s="165" t="s">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="W52" s="149" t="s">
         <v>970</v>
@@ -18543,7 +18621,7 @@
       <c r="X55" s="149"/>
       <c r="Y55" s="154"/>
       <c r="Z55" s="165" t="s">
-        <v>1325</v>
+        <v>1351</v>
       </c>
       <c r="AA55" s="165"/>
       <c r="AB55" s="160"/>
@@ -18601,7 +18679,7 @@
       <c r="Z56" s="165"/>
       <c r="AA56" s="165"/>
       <c r="AB56" s="160" t="s">
-        <v>1325</v>
+        <v>1351</v>
       </c>
       <c r="AC56" s="156"/>
       <c r="AD56" s="156"/>
@@ -18887,7 +18965,7 @@
       <c r="X62" s="150"/>
       <c r="Y62" s="156"/>
       <c r="Z62" s="165" t="s">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="AA62" s="165"/>
       <c r="AB62" s="160" t="s">
@@ -19029,7 +19107,7 @@
       <c r="X65" s="150"/>
       <c r="Y65" s="156"/>
       <c r="Z65" s="165" t="s">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="AA65" s="165"/>
       <c r="AB65" s="160"/>
@@ -19537,7 +19615,7 @@
         <v>1105</v>
       </c>
       <c r="C3" s="142" t="s">
-        <v>1326</v>
+        <v>1352</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>446</v>
@@ -19813,7 +19891,7 @@
         <v>1123</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>1327</v>
+        <v>1353</v>
       </c>
       <c r="D7" s="142" t="s">
         <v>446</v>
@@ -20089,7 +20167,7 @@
         <v>1132</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>1328</v>
+        <v>1354</v>
       </c>
       <c r="D11" s="142" t="s">
         <v>446</v>
@@ -20864,7 +20942,7 @@
       <c r="AA22" s="150"/>
       <c r="AB22" s="150"/>
       <c r="AC22" s="164" t="s">
-        <v>1330</v>
+        <v>1355</v>
       </c>
       <c r="AD22" s="164"/>
       <c r="AE22" s="140"/>
@@ -21124,7 +21202,7 @@
       <c r="AA26" s="150"/>
       <c r="AB26" s="150"/>
       <c r="AC26" s="164" t="s">
-        <v>1330</v>
+        <v>1355</v>
       </c>
       <c r="AD26" s="164"/>
       <c r="AE26" s="140"/>
@@ -21191,7 +21269,7 @@
       <c r="AA27" s="150"/>
       <c r="AB27" s="150"/>
       <c r="AC27" s="164" t="s">
-        <v>1330</v>
+        <v>1355</v>
       </c>
       <c r="AD27" s="164"/>
       <c r="AE27" s="140"/>

--- a/Ajith_KUBS_CEN_GeneralLedger12/Test-data/KUBSTestData.xlsx
+++ b/Ajith_KUBS_CEN_GeneralLedger12/Test-data/KUBSTestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1262">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -4959,6 +4959,24 @@
   </si>
   <si>
     <t>718</t>
+  </si>
+  <si>
+    <t>Testing_5091510</t>
+  </si>
+  <si>
+    <t>Testing_505349</t>
+  </si>
+  <si>
+    <t>Testing_5021148</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>Testing_5072446</t>
+  </si>
+  <si>
+    <t>835</t>
   </si>
 </sst>
 </file>
@@ -5992,7 +6010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6008,14 +6026,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="122.85546875" style="4" collapsed="1"/>
-    <col min="5" max="5" width="37.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.85546875" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="122.85546875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="44.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" style="4" width="41.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" hidden="true" style="4" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" style="4" width="122.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="37.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="38.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="4" width="6.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="4" width="122.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6192,17 +6210,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" style="4" collapsed="1"/>
-    <col min="5" max="5" width="33" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="59.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="65.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="73.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="25.42578125" collapsed="true"/>
+    <col min="4" max="4" style="4" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="33.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="59.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="52.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="54.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="32.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="39.5703125" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6281,19 +6299,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="17.28515625" style="4" collapsed="1"/>
-    <col min="5" max="5" width="33.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="75.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="17.28515625" style="4" collapsed="1"/>
-    <col min="14" max="14" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="69.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="76.140625" collapsed="true"/>
+    <col min="3" max="4" style="4" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="33.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="75.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="32.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="37.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="30.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="23.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" style="4" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="15" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6396,31 +6414,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="62.42578125" style="73" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="59.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="49.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="63.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="32.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="30.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="22" style="4" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="28.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="48.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="70.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="77.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="34.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="43.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="4" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="65.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="73" width="62.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="59.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="49.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="32.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="31.5703125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" style="4" width="63.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="4" width="32.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="4" width="30.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="4" width="22.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="4" width="21.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="48.28515625" collapsed="true"/>
+    <col min="27" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -6764,14 +6782,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="17.28515625" style="4" collapsed="1"/>
-    <col min="5" max="5" width="62.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="17.28515625" style="4" collapsed="1"/>
-    <col min="9" max="9" width="32.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="69.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="74.140625" collapsed="true"/>
+    <col min="3" max="4" style="4" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="62.28515625" collapsed="true"/>
+    <col min="6" max="8" style="4" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="32.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="32.5703125" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6930,20 +6948,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" style="4" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="77.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="83.7109375" collapsed="true"/>
+    <col min="3" max="3" style="4" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="40.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="42.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="22.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="24.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="24.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="20.42578125" collapsed="true"/>
+    <col min="14" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7545,18 +7563,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="36.140625" style="4" collapsed="1"/>
-    <col min="8" max="8" width="27.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="37.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="21" width="36.140625" style="4" collapsed="1"/>
-    <col min="22" max="22" width="40" style="4" customWidth="1" collapsed="1"/>
-    <col min="23" max="48" width="36.140625" style="4" collapsed="1"/>
-    <col min="49" max="49" width="55.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="50" max="16384" width="36.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="64.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="70.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
+    <col min="4" max="7" style="4" width="36.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="27.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="29.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="37.140625" collapsed="true"/>
+    <col min="11" max="21" style="4" width="36.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="4" width="40.0" collapsed="true"/>
+    <col min="23" max="48" style="4" width="36.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="4" width="55.7109375" collapsed="true"/>
+    <col min="50" max="16384" style="4" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -9135,17 +9153,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="87" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="28.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="17.140625" style="4" collapsed="1"/>
-    <col min="14" max="15" width="30.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="87.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="82.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="31.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="31.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="4" width="28.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="26.7109375" collapsed="true"/>
+    <col min="10" max="13" style="4" width="17.140625" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="4" width="30.5703125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30">
@@ -9549,19 +9567,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="56.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="59.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="62" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="104.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="78.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="62.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="69.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="60.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="55.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="4" width="56.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="59.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="4" width="62.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="104.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="78.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="62.7109375" collapsed="true"/>
+    <col min="15" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -10392,7 +10410,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
@@ -10400,31 +10418,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="44.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="47.42578125" style="73" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="47.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="74.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="78.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="73" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="34" style="4" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="45.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="48.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.140625" style="4" collapsed="1"/>
-    <col min="24" max="24" width="37" style="4" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="35.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="46" style="4" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="30.85546875" style="73" customWidth="1" collapsed="1"/>
-    <col min="28" max="1023" width="17.140625" style="4" collapsed="1"/>
-    <col min="1024" max="1024" width="16.85546875" style="119" customWidth="1" collapsed="1"/>
-    <col min="1025" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="55.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="56.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="14.0" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="4" width="44.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="73" width="47.42578125" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="4" width="47.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="74.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="78.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="73.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="20.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="34.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" style="4" width="48.28515625" collapsed="true"/>
+    <col min="23" max="23" style="4" width="17.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="37.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="35.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="46.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="73" width="30.85546875" collapsed="true"/>
+    <col min="28" max="1023" style="4" width="17.140625" collapsed="true"/>
+    <col min="1024" max="1024" customWidth="true" style="119" width="16.85546875" collapsed="true"/>
+    <col min="1025" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -12470,16 +12488,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="15" width="35.5703125" style="4" collapsed="1"/>
-    <col min="16" max="16" width="22.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="26" width="35.5703125" style="4" collapsed="1"/>
-    <col min="27" max="27" width="14.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="42.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="35.5703125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="42.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="56.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="14.140625" collapsed="true"/>
+    <col min="5" max="15" style="4" width="35.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
+    <col min="17" max="26" style="4" width="35.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="4" width="42.140625" collapsed="true"/>
+    <col min="29" max="16384" style="4" width="35.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -13528,10 +13546,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="39.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="40.0" collapsed="true"/>
+    <col min="4" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13652,22 +13670,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="17.28515625" style="4" collapsed="1"/>
-    <col min="9" max="9" width="35.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.28515625" style="4" collapsed="1"/>
-    <col min="13" max="13" width="50" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="34.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="33.42578125" collapsed="true"/>
+    <col min="6" max="8" style="4" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="35.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="26.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="32.5703125" collapsed="true"/>
+    <col min="12" max="12" style="4" width="17.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="50.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="28.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="31.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="29.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="27.7109375" collapsed="true"/>
+    <col min="18" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -14103,18 +14121,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="59.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="104.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="78.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="62.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="69.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="60.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="47.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="55.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="56.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="59.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="62.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="104.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="78.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="62.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14292,7 +14310,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="4.291732283464567" bottom="4.291732283464567" header="4.0948818897637791" footer="4.0948818897637791"/>
@@ -14310,7 +14328,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="4.291732283464567" bottom="4.291732283464567" header="4.0948818897637791" footer="4.0948818897637791"/>
@@ -14328,18 +14346,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="65.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="62" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="48.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="42.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="71.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="76.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="50.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="51.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="40.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="65.28515625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="4" width="62.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="48.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="42.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="38.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -14547,19 +14565,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="47.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="41" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="64" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="55.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="52.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="45.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="39.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="38.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="23.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="47.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="41.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="4" width="64.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="55.85546875" collapsed="true"/>
+    <col min="14" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -14671,22 +14689,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="62.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="69" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="43.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="33.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="66.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="64.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="70.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="57.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="62.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="41.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="28.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="69.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="30.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="43.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="33.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="52.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="66.42578125" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="4" width="64.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="70.5703125" collapsed="true"/>
+    <col min="17" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -14804,13 +14822,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="43.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="50.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="54.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="40.5703125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="4" width="43.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="50.140625" collapsed="true"/>
+    <col min="8" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14871,21 +14889,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="71.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="59" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="53.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="34.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="47.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="42.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="47.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="56.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="50.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="33.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="55.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="71.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="59.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="53.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="34.42578125" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" style="4" width="47.5703125" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" style="4" width="42.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="47.140625" collapsed="true"/>
+    <col min="18" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -15054,38 +15072,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="178" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" style="178" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="12.5703125" style="178" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.42578125" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.7109375" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23.28515625" style="178" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.5703125" style="178" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.140625" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.5703125" style="178" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.85546875" style="178" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.85546875" style="178" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="14.85546875" style="178" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="27.42578125" style="168" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23" style="168" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21" style="178" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="20.28515625" style="178" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="9.7109375" style="178" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="178" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="178" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="178" width="12.7734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="178" width="12.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="178" width="30.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="178" width="21.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="178" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="178" width="18.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="178" width="20.140625" collapsed="true"/>
+    <col min="10" max="13" customWidth="true" style="178" width="12.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="178" width="20.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="178" width="20.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="178" width="18.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="178" width="25.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="178" width="19.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="178" width="27.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="178" width="23.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="178" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="178" width="18.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="178" width="13.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="178" width="13.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="178" width="21.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="178" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="178" width="21.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="178" width="17.0" collapsed="true"/>
+    <col min="29" max="31" customWidth="true" style="178" width="14.85546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="178" width="25.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="168" width="27.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="168" width="23.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="178" width="21.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="178" width="20.28515625" collapsed="true"/>
+    <col min="37" max="16384" style="178" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="169" customFormat="1">
@@ -15260,10 +15278,10 @@
         <v>861</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D3" s="141" t="s">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="E3" s="141"/>
       <c r="F3" s="143"/>
@@ -15359,7 +15377,7 @@
       <c r="F5" s="143"/>
       <c r="G5" s="145"/>
       <c r="H5" s="141" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="I5" s="147"/>
       <c r="J5" s="153" t="s">
@@ -18426,7 +18444,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="73.85546875" style="4" collapsed="1"/>
+    <col min="1" max="16384" style="4" width="73.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18490,27 +18508,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="37.28515625" style="178" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="37.28515625" style="178" collapsed="1"/>
-    <col min="7" max="7" width="53.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="48.28515625" style="178" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="38.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="43.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="52" style="178" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="41" style="178" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="52.42578125" style="178" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47" style="178" customWidth="1" collapsed="1"/>
-    <col min="16" max="28" width="37.28515625" style="178" collapsed="1"/>
-    <col min="29" max="29" width="34.7109375" style="178" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.140625" style="178" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="37.28515625" style="178" collapsed="1"/>
-    <col min="34" max="34" width="38.42578125" style="178" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="37.28515625" style="178" collapsed="1"/>
-    <col min="37" max="37" width="39.7109375" style="178" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="37.28515625" style="178" collapsed="1"/>
+    <col min="1" max="2" style="178" width="37.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="178" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="178" width="12.140625" collapsed="true"/>
+    <col min="5" max="6" style="178" width="37.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="178" width="53.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="178" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="178" width="48.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="178" width="38.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="178" width="43.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="178" width="52.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="178" width="41.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="178" width="52.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="178" width="47.0" collapsed="true"/>
+    <col min="16" max="28" style="178" width="37.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="178" width="34.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="178" width="26.140625" collapsed="true"/>
+    <col min="31" max="33" style="178" width="37.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="178" width="38.42578125" collapsed="true"/>
+    <col min="35" max="36" style="178" width="37.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="178" width="39.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="178" width="37.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
@@ -22031,25 +22049,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="56" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="54.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.140625" style="4" collapsed="1"/>
-    <col min="8" max="8" width="69.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="60.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.140625" style="4" collapsed="1"/>
-    <col min="11" max="11" width="66.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="74.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.140625" style="4" collapsed="1"/>
-    <col min="14" max="14" width="55.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="62" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="53" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="53.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="76.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="56.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="31.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="54.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="54.140625" collapsed="true"/>
+    <col min="7" max="7" style="4" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="69.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="60.7109375" collapsed="true"/>
+    <col min="10" max="10" style="4" width="17.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="66.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="74.85546875" collapsed="true"/>
+    <col min="13" max="13" style="4" width="17.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="55.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="62.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="20.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="53.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="53.42578125" collapsed="true"/>
+    <col min="19" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45">
@@ -22545,46 +22563,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="36.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="34.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="35.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="40.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="38.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="44.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="37.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="48.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="25.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="32.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="25.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="26.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16" style="21" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="41" style="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="34.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="32.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="22" style="21" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="46.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="37.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="54.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="62" style="21" customWidth="1" collapsed="1"/>
-    <col min="40" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="73.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="79.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="21" width="34.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="21" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="21" width="30.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="21" width="31.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="21" width="27.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="21" width="31.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="21" width="27.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="21" width="36.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="21" width="34.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="21" width="35.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="21" width="40.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="21" width="38.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="21" width="44.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="21" width="37.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="21" width="48.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="21" width="23.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="21" width="39.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="21" width="25.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="21" width="32.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="21" width="25.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="21" width="26.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="21" width="20.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="21" width="17.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="21" width="16.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="21" width="24.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="21" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="21" width="41.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="21" width="34.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="21" width="32.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="21" width="22.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="21" width="46.85546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="21" width="37.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="21" width="54.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="21" width="62.0" collapsed="true"/>
+    <col min="40" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -22972,9 +22990,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="86.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="47.42578125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="75.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="86.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="4" width="47.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -23159,22 +23177,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="57" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.140625" style="4" collapsed="1"/>
-    <col min="13" max="13" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="42.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="37.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="73.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="83.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="25.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="40.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="28.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="35.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="23.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="57.0" collapsed="true"/>
+    <col min="11" max="12" style="4" width="17.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="42.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="37.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="28.28515625" collapsed="true"/>
+    <col min="17" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -23355,38 +23373,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="60.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="32.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="42.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34" style="4" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="35.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="29.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="25.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="32.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="28" style="4" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="24" style="4" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="43.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="70.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="81.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="38.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="60.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="38.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="53.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="23.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="32.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="30.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="35.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="36.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="32.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="42.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="4" width="34.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="4" width="35.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="4" width="29.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="4" width="28.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="25.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="32.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="4" width="28.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="4" width="24.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="4" width="24.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="4" width="43.7109375" collapsed="true"/>
+    <col min="32" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -23835,16 +23853,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="87.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="37.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="23.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="17" width="48.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="17.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="93.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="87.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="27.7109375" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="4" width="37.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="21.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="30.42578125" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="4" width="23.28515625" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="4" width="48.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="19" max="16384" style="4" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30">
@@ -24158,17 +24176,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="48.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="35.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="17.28515625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="75.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="81.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="48.28515625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="4" width="35.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="36.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="25.42578125" collapsed="true"/>
+    <col min="9" max="9" style="4" width="17.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="19.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="20.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="4" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
